--- a/envo/document/data/list/11.xlsx
+++ b/envo/document/data/list/11.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Cherry blossom : hoa anh đào</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Lily : hoa loa kèn</t>
   </si>
   <si>
-    <t>Orchids : hoa lan</t>
-  </si>
-  <si>
     <t>Gladiolus : hoa lay ơn</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>Confetti : hoa giấy</t>
   </si>
   <si>
-    <t>Peony flower : hoa mẫu đơn</t>
-  </si>
-  <si>
     <t>Phoenix-flower : hoa phượng</t>
   </si>
   <si>
@@ -88,6 +82,9 @@
   </si>
   <si>
     <t>Lavender - Hoa oải hương</t>
+  </si>
+  <si>
+    <t>Peony : hoa mẫu đơn</t>
   </si>
 </sst>
 </file>
@@ -426,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -470,47 +467,47 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -525,22 +522,22 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -550,17 +547,7 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
